--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7918E509-9E42-4CC8-9520-CBC01C17A19E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02521CEA-E788-45CD-A968-D21C6F4681F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,12 +717,22 @@
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>54.152000000000001</v>
+      </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="D12" s="2">
+        <v>54.152000000000001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <v>200</v>
+      </c>
+      <c r="G12" s="2">
+        <v>300</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -821,9 +831,15 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <f>MAX(B5:B21)</f>
+        <v>54.51</v>
+      </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <f>MAX(D5:D21)</f>
+        <v>54.152000000000001</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02521CEA-E788-45CD-A968-D21C6F4681F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611C3CC0-2B2D-46BE-8600-FC7023A5827A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>train acc</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>9. bs50 hu300</t>
+  </si>
+  <si>
+    <t>5/20</t>
+  </si>
+  <si>
+    <t>7/20</t>
+  </si>
+  <si>
+    <t>9/20</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,12 +714,24 @@
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="B11" s="2">
+        <v>54.13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2">
+        <v>53.4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>100</v>
+      </c>
+      <c r="G11" s="2">
+        <v>300</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -720,7 +741,9 @@
       <c r="B12" s="2">
         <v>54.152000000000001</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" s="2">
         <v>54.152000000000001</v>
       </c>
@@ -739,24 +762,48 @@
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="B13" s="2">
+        <v>53.77</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2">
+        <v>53.131999999999998</v>
+      </c>
+      <c r="E13" s="2">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2">
+        <v>300</v>
+      </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="B14" s="2">
+        <v>54.1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
+        <v>53.73</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2">
+        <v>300</v>
+      </c>
+      <c r="G14" s="2">
+        <v>300</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611C3CC0-2B2D-46BE-8600-FC7023A5827A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D262E089-4AE7-4C33-8765-7D099227FA4D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>train acc</t>
   </si>
@@ -52,18 +52,6 @@
     <t>2. 5way lr 0.001</t>
   </si>
   <si>
-    <t>3. bs 200</t>
-  </si>
-  <si>
-    <t>4. hu 128</t>
-  </si>
-  <si>
-    <t>5. bs200 hu128</t>
-  </si>
-  <si>
-    <t>6. bs300 hu 128</t>
-  </si>
-  <si>
     <t>13/20</t>
   </si>
   <si>
@@ -91,18 +79,6 @@
     <t>5ways static rnn</t>
   </si>
   <si>
-    <t>8. bs200 hu300</t>
-  </si>
-  <si>
-    <t>7. bs100 hu300</t>
-  </si>
-  <si>
-    <t>10. bs300 hu300</t>
-  </si>
-  <si>
-    <t>9. bs50 hu300</t>
-  </si>
-  <si>
     <t>5/20</t>
   </si>
   <si>
@@ -110,6 +86,63 @@
   </si>
   <si>
     <t>9/20</t>
+  </si>
+  <si>
+    <t>11. 4way adam</t>
+  </si>
+  <si>
+    <t>12. 4way rmsProp</t>
+  </si>
+  <si>
+    <t>10. 5way bs300 hu300</t>
+  </si>
+  <si>
+    <t>9. 5way bs50 hu300</t>
+  </si>
+  <si>
+    <t>8. 5way bs200 hu300</t>
+  </si>
+  <si>
+    <t>7. 5way bs100 hu300</t>
+  </si>
+  <si>
+    <t>3. 5way bs 200</t>
+  </si>
+  <si>
+    <t>4. 5way hu 128</t>
+  </si>
+  <si>
+    <t>5. 5way bs200 hu128</t>
+  </si>
+  <si>
+    <t>6. 5way bs300 hu 128</t>
+  </si>
+  <si>
+    <t>13. 5way emb dim 100</t>
+  </si>
+  <si>
+    <t>14. 4way adaGrad</t>
+  </si>
+  <si>
+    <t>16. 5way xavier</t>
+  </si>
+  <si>
+    <t>17/20</t>
+  </si>
+  <si>
+    <t>emb dim</t>
+  </si>
+  <si>
+    <t>6/20</t>
+  </si>
+  <si>
+    <t>15. 5way multiCell + xavier +100dim</t>
+  </si>
+  <si>
+    <t>param 1.8M</t>
+  </si>
+  <si>
+    <t>17. 5 way 300dim</t>
   </si>
 </sst>
 </file>
@@ -125,12 +158,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -160,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -170,6 +209,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,25 +494,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -490,13 +533,16 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
         <v>52.56</v>
@@ -514,9 +560,12 @@
       <c r="G2" s="2">
         <v>300</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="2">
+        <v>50</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -524,7 +573,7 @@
         <v>79.03</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
         <v>78.75</v>
@@ -538,9 +587,12 @@
       <c r="G3" s="2">
         <v>64</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -548,7 +600,7 @@
         <v>75.56</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
         <v>74.89</v>
@@ -562,9 +614,12 @@
       <c r="G4" s="2">
         <v>64</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="2">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -572,7 +627,7 @@
         <v>38.28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>38.200000000000003</v>
@@ -586,11 +641,14 @@
       <c r="G5" s="2">
         <v>64</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="2">
+        <v>50</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -598,7 +656,7 @@
         <v>53.63</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
         <v>53.14</v>
@@ -612,17 +670,20 @@
       <c r="G6" s="2">
         <v>64</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="2">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2">
         <v>53.62</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>53.38</v>
@@ -636,17 +697,20 @@
       <c r="G7" s="2">
         <v>64</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="2">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2">
         <v>54.47</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <v>53.52</v>
@@ -660,17 +724,20 @@
       <c r="G8" s="2">
         <v>128</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="2">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2">
         <v>54.51</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
         <v>53.52</v>
@@ -684,17 +751,20 @@
       <c r="G9" s="2">
         <v>128</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="2">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2">
         <v>54.34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>53.56</v>
@@ -708,17 +778,20 @@
       <c r="G10" s="2">
         <v>128</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="2">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2">
         <v>54.13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <v>53.4</v>
@@ -732,17 +805,20 @@
       <c r="G11" s="2">
         <v>300</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="2">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
         <v>54.152000000000001</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
         <v>54.152000000000001</v>
@@ -756,17 +832,20 @@
       <c r="G12" s="2">
         <v>300</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="2">
+        <v>50</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2">
         <v>53.77</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
         <v>53.131999999999998</v>
@@ -780,17 +859,20 @@
       <c r="G13" s="2">
         <v>300</v>
       </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="2">
+        <v>50</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2">
         <v>54.1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2">
         <v>53.73</v>
@@ -804,93 +886,194 @@
       <c r="G14" s="2">
         <v>300</v>
       </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="H14" s="2">
+        <v>50</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2">
+        <v>61.04</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2">
+        <v>60.78</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>200</v>
+      </c>
+      <c r="G15" s="2">
+        <v>300</v>
+      </c>
+      <c r="H15" s="2">
+        <v>50</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>59.18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2">
+        <v>59.155000000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
+        <v>200</v>
+      </c>
+      <c r="G16" s="2">
+        <v>300</v>
+      </c>
+      <c r="H16" s="2">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2">
+        <v>55.91</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5">
+        <v>55.6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
+        <v>200</v>
+      </c>
+      <c r="G17" s="2">
+        <v>300</v>
+      </c>
+      <c r="H17" s="2">
+        <v>100</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2">
+        <v>200</v>
+      </c>
+      <c r="G18" s="2">
+        <v>300</v>
+      </c>
+      <c r="H18" s="2">
+        <v>50</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2">
+        <v>200</v>
+      </c>
+      <c r="G19" s="2">
+        <v>300</v>
+      </c>
+      <c r="H19" s="2">
+        <v>100</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <v>200</v>
+      </c>
+      <c r="G20" s="2">
+        <v>300</v>
+      </c>
+      <c r="H20" s="2">
+        <v>50</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2">
+        <v>200</v>
+      </c>
+      <c r="G21" s="2">
+        <v>300</v>
+      </c>
+      <c r="H21" s="2">
+        <v>300</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="2">
-        <f>MAX(B5:B21)</f>
-        <v>54.51</v>
-      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="2">
-        <f>MAX(D5:D21)</f>
-        <v>54.152000000000001</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D262E089-4AE7-4C33-8765-7D099227FA4D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ACB9C8-7F8E-4C32-88D1-2F4CDB2FDF30}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>train acc</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>17. 5 way 300dim</t>
+  </si>
+  <si>
+    <t>5/10</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,8 +1006,12 @@
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="2">
+        <v>56.14</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2">
         <v>10</v>
@@ -1026,8 +1033,12 @@
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="2">
+        <v>54.46</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
         <v>20</v>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ACB9C8-7F8E-4C32-88D1-2F4CDB2FDF30}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1524641-F72C-488B-8759-086921CAAC3E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>train acc</t>
   </si>
@@ -142,10 +142,22 @@
     <t>param 1.8M</t>
   </si>
   <si>
-    <t>17. 5 way 300dim</t>
-  </si>
-  <si>
     <t>5/10</t>
+  </si>
+  <si>
+    <t>18. 5 way 3 layers  multi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17. 5 way 300dim multiCell + xavier </t>
+  </si>
+  <si>
+    <t>4/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19. 5 way 300dim multiCell + xavier 3 layers </t>
+  </si>
+  <si>
+    <t>20. 5 way 4 layers  multi</t>
   </si>
 </sst>
 </file>
@@ -161,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,7 +182,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -211,10 +235,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -497,15 +536,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -544,547 +583,609 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="8">
         <v>52.56</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
+      <c r="C2" s="9"/>
+      <c r="D2" s="8">
         <v>52.31</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="8">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="8">
         <v>128</v>
       </c>
-      <c r="G2" s="2">
-        <v>300</v>
-      </c>
-      <c r="H2" s="2">
-        <v>50</v>
-      </c>
-      <c r="I2" s="3"/>
+      <c r="G2" s="8">
+        <v>300</v>
+      </c>
+      <c r="H2" s="8">
+        <v>50</v>
+      </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="10">
         <v>79.03</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="10">
         <v>78.75</v>
       </c>
-      <c r="E3" s="2">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="10">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10">
         <v>100</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="10">
         <v>64</v>
       </c>
-      <c r="H3" s="2">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1"/>
+      <c r="H3" s="10">
+        <v>50</v>
+      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="10">
         <v>75.56</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="10">
         <v>74.89</v>
       </c>
-      <c r="E4" s="2">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="10">
+        <v>20</v>
+      </c>
+      <c r="F4" s="10">
         <v>100</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="10">
         <v>64</v>
       </c>
-      <c r="H4" s="2">
-        <v>50</v>
-      </c>
-      <c r="I4" s="1"/>
+      <c r="H4" s="10">
+        <v>50</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="8">
         <v>38.28</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="8">
         <v>38.200000000000003</v>
       </c>
-      <c r="E5" s="2">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="8">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8">
         <v>100</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="8">
         <v>64</v>
       </c>
-      <c r="H5" s="2">
-        <v>50</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="8">
+        <v>50</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="8">
         <v>53.63</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="8">
         <v>53.14</v>
       </c>
-      <c r="E6" s="2">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="8">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8">
         <v>100</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="8">
         <v>64</v>
       </c>
-      <c r="H6" s="2">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1"/>
+      <c r="H6" s="8">
+        <v>50</v>
+      </c>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="8">
         <v>53.62</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="8">
         <v>53.38</v>
       </c>
-      <c r="E7" s="2">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2">
-        <v>200</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="E7" s="8">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8">
+        <v>200</v>
+      </c>
+      <c r="G7" s="8">
         <v>64</v>
       </c>
-      <c r="H7" s="2">
-        <v>50</v>
-      </c>
-      <c r="I7" s="1"/>
+      <c r="H7" s="8">
+        <v>50</v>
+      </c>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="8">
         <v>54.47</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="8">
         <v>53.52</v>
       </c>
-      <c r="E8" s="2">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="8">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8">
         <v>100</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="8">
         <v>128</v>
       </c>
-      <c r="H8" s="2">
-        <v>50</v>
-      </c>
-      <c r="I8" s="1"/>
+      <c r="H8" s="8">
+        <v>50</v>
+      </c>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="8">
         <v>54.51</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="8">
         <v>53.52</v>
       </c>
-      <c r="E9" s="2">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2">
-        <v>200</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="E9" s="8">
+        <v>20</v>
+      </c>
+      <c r="F9" s="8">
+        <v>200</v>
+      </c>
+      <c r="G9" s="8">
         <v>128</v>
       </c>
-      <c r="H9" s="2">
-        <v>50</v>
-      </c>
-      <c r="I9" s="1"/>
+      <c r="H9" s="8">
+        <v>50</v>
+      </c>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="8">
         <v>54.34</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="8">
         <v>53.56</v>
       </c>
-      <c r="E10" s="2">
-        <v>20</v>
-      </c>
-      <c r="F10" s="2">
-        <v>300</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="E10" s="8">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8">
+        <v>300</v>
+      </c>
+      <c r="G10" s="8">
         <v>128</v>
       </c>
-      <c r="H10" s="2">
-        <v>50</v>
-      </c>
-      <c r="I10" s="1"/>
+      <c r="H10" s="8">
+        <v>50</v>
+      </c>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="8">
         <v>54.13</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="8">
         <v>53.4</v>
       </c>
-      <c r="E11" s="2">
-        <v>20</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E11" s="8">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8">
         <v>100</v>
       </c>
-      <c r="G11" s="2">
-        <v>300</v>
-      </c>
-      <c r="H11" s="2">
-        <v>50</v>
-      </c>
-      <c r="I11" s="1"/>
+      <c r="G11" s="8">
+        <v>300</v>
+      </c>
+      <c r="H11" s="8">
+        <v>50</v>
+      </c>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="8">
         <v>54.152000000000001</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8">
         <v>54.152000000000001</v>
       </c>
-      <c r="E12" s="2">
-        <v>20</v>
-      </c>
-      <c r="F12" s="2">
-        <v>200</v>
-      </c>
-      <c r="G12" s="2">
-        <v>300</v>
-      </c>
-      <c r="H12" s="2">
-        <v>50</v>
-      </c>
-      <c r="I12" s="1"/>
+      <c r="E12" s="8">
+        <v>20</v>
+      </c>
+      <c r="F12" s="8">
+        <v>200</v>
+      </c>
+      <c r="G12" s="8">
+        <v>300</v>
+      </c>
+      <c r="H12" s="8">
+        <v>50</v>
+      </c>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="8">
         <v>53.77</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="8">
         <v>53.131999999999998</v>
       </c>
-      <c r="E13" s="2">
-        <v>20</v>
-      </c>
-      <c r="F13" s="2">
-        <v>50</v>
-      </c>
-      <c r="G13" s="2">
-        <v>300</v>
-      </c>
-      <c r="H13" s="2">
-        <v>50</v>
-      </c>
-      <c r="I13" s="1"/>
+      <c r="E13" s="8">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8">
+        <v>50</v>
+      </c>
+      <c r="G13" s="8">
+        <v>300</v>
+      </c>
+      <c r="H13" s="8">
+        <v>50</v>
+      </c>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="8">
         <v>54.1</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="8">
         <v>53.73</v>
       </c>
-      <c r="E14" s="2">
-        <v>20</v>
-      </c>
-      <c r="F14" s="2">
-        <v>300</v>
-      </c>
-      <c r="G14" s="2">
-        <v>300</v>
-      </c>
-      <c r="H14" s="2">
-        <v>50</v>
-      </c>
-      <c r="I14" s="1"/>
+      <c r="E14" s="8">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8">
+        <v>300</v>
+      </c>
+      <c r="G14" s="8">
+        <v>300</v>
+      </c>
+      <c r="H14" s="8">
+        <v>50</v>
+      </c>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="6">
         <v>61.04</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="6">
         <v>60.78</v>
       </c>
-      <c r="E15" s="2">
-        <v>20</v>
-      </c>
-      <c r="F15" s="2">
-        <v>200</v>
-      </c>
-      <c r="G15" s="2">
-        <v>300</v>
-      </c>
-      <c r="H15" s="2">
-        <v>50</v>
-      </c>
-      <c r="I15" s="1"/>
+      <c r="E15" s="6">
+        <v>20</v>
+      </c>
+      <c r="F15" s="6">
+        <v>200</v>
+      </c>
+      <c r="G15" s="6">
+        <v>300</v>
+      </c>
+      <c r="H15" s="6">
+        <v>50</v>
+      </c>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="6">
         <v>59.18</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="6">
         <v>59.155000000000001</v>
       </c>
-      <c r="E16" s="2">
-        <v>20</v>
-      </c>
-      <c r="F16" s="2">
-        <v>200</v>
-      </c>
-      <c r="G16" s="2">
-        <v>300</v>
-      </c>
-      <c r="H16" s="2">
-        <v>50</v>
-      </c>
-      <c r="I16" s="1"/>
+      <c r="E16" s="6">
+        <v>20</v>
+      </c>
+      <c r="F16" s="6">
+        <v>200</v>
+      </c>
+      <c r="G16" s="6">
+        <v>300</v>
+      </c>
+      <c r="H16" s="6">
+        <v>50</v>
+      </c>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="8">
         <v>55.91</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="8">
         <v>55.6</v>
       </c>
-      <c r="E17" s="2">
-        <v>20</v>
-      </c>
-      <c r="F17" s="2">
-        <v>200</v>
-      </c>
-      <c r="G17" s="2">
-        <v>300</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="E17" s="8">
+        <v>20</v>
+      </c>
+      <c r="F17" s="8">
+        <v>200</v>
+      </c>
+      <c r="G17" s="8">
+        <v>300</v>
+      </c>
+      <c r="H17" s="8">
         <v>100</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="6">
         <v>25.2</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="6">
         <v>24.4</v>
       </c>
-      <c r="E18" s="2">
-        <v>20</v>
-      </c>
-      <c r="F18" s="2">
-        <v>200</v>
-      </c>
-      <c r="G18" s="2">
-        <v>300</v>
-      </c>
-      <c r="H18" s="2">
-        <v>50</v>
-      </c>
-      <c r="I18" s="1"/>
+      <c r="E18" s="6">
+        <v>20</v>
+      </c>
+      <c r="F18" s="6">
+        <v>200</v>
+      </c>
+      <c r="G18" s="6">
+        <v>300</v>
+      </c>
+      <c r="H18" s="6">
+        <v>50</v>
+      </c>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="8">
         <v>56.14</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="8">
+        <v>55.6</v>
+      </c>
+      <c r="E19" s="8">
+        <v>10</v>
+      </c>
+      <c r="F19" s="8">
+        <v>200</v>
+      </c>
+      <c r="G19" s="8">
+        <v>300</v>
+      </c>
+      <c r="H19" s="8">
+        <v>100</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="8">
+        <v>54.46</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="8">
+        <v>54.14</v>
+      </c>
+      <c r="E20" s="8">
+        <v>20</v>
+      </c>
+      <c r="F20" s="8">
+        <v>200</v>
+      </c>
+      <c r="G20" s="8">
+        <v>300</v>
+      </c>
+      <c r="H20" s="8">
+        <v>50</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="8">
+        <v>57.67</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="8">
+        <v>57.2</v>
+      </c>
+      <c r="E21" s="8">
+        <v>10</v>
+      </c>
+      <c r="F21" s="8">
+        <v>200</v>
+      </c>
+      <c r="G21" s="8">
+        <v>300</v>
+      </c>
+      <c r="H21" s="8">
+        <v>300</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8">
         <v>10</v>
       </c>
-      <c r="F19" s="2">
-        <v>200</v>
-      </c>
-      <c r="G19" s="2">
-        <v>300</v>
-      </c>
-      <c r="H19" s="2">
-        <v>100</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="2">
-        <v>54.46</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <v>20</v>
-      </c>
-      <c r="F20" s="2">
-        <v>200</v>
-      </c>
-      <c r="G20" s="2">
-        <v>300</v>
-      </c>
-      <c r="H20" s="2">
-        <v>50</v>
-      </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2">
+      <c r="F22" s="8">
+        <v>200</v>
+      </c>
+      <c r="G22" s="8">
+        <v>300</v>
+      </c>
+      <c r="H22" s="8">
+        <v>50</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8">
         <v>10</v>
       </c>
-      <c r="F21" s="2">
-        <v>200</v>
-      </c>
-      <c r="G21" s="2">
-        <v>300</v>
-      </c>
-      <c r="H21" s="2">
-        <v>300</v>
-      </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="1"/>
+      <c r="F23" s="8">
+        <v>200</v>
+      </c>
+      <c r="G23" s="8">
+        <v>300</v>
+      </c>
+      <c r="H23" s="8">
+        <v>300</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
+        <v>10</v>
+      </c>
+      <c r="F24" s="8">
+        <v>200</v>
+      </c>
+      <c r="G24" s="8">
+        <v>300</v>
+      </c>
+      <c r="H24" s="8">
+        <v>50</v>
+      </c>
+      <c r="I24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1524641-F72C-488B-8759-086921CAAC3E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE0F8E4-B1C3-4DDD-98A6-2C5EE0E53445}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>train acc</t>
   </si>
@@ -145,19 +145,28 @@
     <t>5/10</t>
   </si>
   <si>
-    <t>18. 5 way 3 layers  multi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17. 5 way 300dim multiCell + xavier </t>
-  </si>
-  <si>
     <t>4/10</t>
   </si>
   <si>
-    <t xml:space="preserve">19. 5 way 300dim multiCell + xavier 3 layers </t>
-  </si>
-  <si>
-    <t>20. 5 way 4 layers  multi</t>
+    <t xml:space="preserve">17. 5 way 300dim multiCell(2 layers) + xavier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19. 5 way 300dim multiCell(3 layers ) + xavier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18. 5 way 50dim multiCell(3 layers ) + xavier </t>
+  </si>
+  <si>
+    <t>6/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20. 5 way multiCell(4 layers ) </t>
+  </si>
+  <si>
+    <t>10/10</t>
+  </si>
+  <si>
+    <t>21. same as #20 -more epochs</t>
   </si>
 </sst>
 </file>
@@ -536,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1114,7 @@
         <v>57.67</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" s="8">
         <v>57.2</v>
@@ -1126,11 +1135,17 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="B22" s="8">
+        <v>54.29</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="8">
+        <v>53.9</v>
+      </c>
       <c r="E22" s="8">
         <v>10</v>
       </c>
@@ -1147,7 +1162,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
@@ -1159,7 +1174,7 @@
         <v>200</v>
       </c>
       <c r="G23" s="8">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H23" s="8">
         <v>300</v>
@@ -1168,11 +1183,17 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="B24" s="8">
+        <v>54.21</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="8">
+        <v>53.86</v>
+      </c>
       <c r="E24" s="8">
         <v>10</v>
       </c>
@@ -1180,12 +1201,33 @@
         <v>200</v>
       </c>
       <c r="G24" s="8">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H24" s="8">
         <v>50</v>
       </c>
       <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8">
+        <v>20</v>
+      </c>
+      <c r="F25" s="8">
+        <v>200</v>
+      </c>
+      <c r="G25" s="8">
+        <v>100</v>
+      </c>
+      <c r="H25" s="8">
+        <v>50</v>
+      </c>
+      <c r="I25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE0F8E4-B1C3-4DDD-98A6-2C5EE0E53445}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D73C23E-5E07-4984-A13F-D2A609B4BF3C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>train acc</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>21. same as #20 -more epochs</t>
+  </si>
+  <si>
+    <t>jupyter got stucked. Best train %</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>22. just like #19 - extra layer (4 total) and 20 epochs</t>
   </si>
 </sst>
 </file>
@@ -208,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -231,11 +240,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -265,6 +285,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,15 +566,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -1164,9 +1185,15 @@
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="8">
+        <v>57.09</v>
+      </c>
       <c r="E23" s="8">
         <v>10</v>
       </c>
@@ -1179,7 +1206,9 @@
       <c r="H23" s="8">
         <v>300</v>
       </c>
-      <c r="I23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -1229,6 +1258,27 @@
       </c>
       <c r="I25" s="4"/>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8">
+        <v>20</v>
+      </c>
+      <c r="F26" s="8">
+        <v>200</v>
+      </c>
+      <c r="G26" s="8">
+        <v>150</v>
+      </c>
+      <c r="H26" s="8">
+        <v>300</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D73C23E-5E07-4984-A13F-D2A609B4BF3C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B771B09C-FCF4-4F13-B9DD-C4BDBF14363C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>train acc</t>
   </si>
@@ -176,6 +176,30 @@
   </si>
   <si>
     <t>22. just like #19 - extra layer (4 total) and 20 epochs</t>
+  </si>
+  <si>
+    <t>try shuffle best model</t>
+  </si>
+  <si>
+    <t>9/15</t>
+  </si>
+  <si>
+    <t>23.4way - 4layers and 50dim</t>
+  </si>
+  <si>
+    <t>9/10</t>
+  </si>
+  <si>
+    <t>24.4way 4layer 300dim</t>
+  </si>
+  <si>
+    <t>25. 2way 4layer 300 dim</t>
+  </si>
+  <si>
+    <t>26. 5 way 5 layers lower hu</t>
+  </si>
+  <si>
+    <t>27. 5 way 5 layers 100K per class</t>
   </si>
 </sst>
 </file>
@@ -566,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,9 +1265,15 @@
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8"/>
+      <c r="B25" s="8">
+        <v>54.54</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="8">
+        <v>53.8</v>
+      </c>
       <c r="E25" s="8">
         <v>20</v>
       </c>
@@ -1262,9 +1292,15 @@
       <c r="A26" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="8">
+        <v>57.27</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="8">
+        <v>56.8</v>
+      </c>
       <c r="E26" s="8">
         <v>20</v>
       </c>
@@ -1278,6 +1314,122 @@
         <v>300</v>
       </c>
       <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="6">
+        <v>61.08</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="6">
+        <v>60.76</v>
+      </c>
+      <c r="E27" s="6">
+        <v>10</v>
+      </c>
+      <c r="F27" s="6">
+        <v>200</v>
+      </c>
+      <c r="G27" s="6">
+        <v>150</v>
+      </c>
+      <c r="H27" s="6">
+        <v>50</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="6">
+        <v>64.7</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="6">
+        <v>64.3</v>
+      </c>
+      <c r="E28" s="6">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6">
+        <v>200</v>
+      </c>
+      <c r="G28" s="6">
+        <v>200</v>
+      </c>
+      <c r="H28" s="6">
+        <v>300</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="10">
+        <v>80.8</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="10">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="E29" s="10">
+        <v>10</v>
+      </c>
+      <c r="F29" s="10">
+        <v>200</v>
+      </c>
+      <c r="G29" s="10">
+        <v>150</v>
+      </c>
+      <c r="H29" s="10">
+        <v>300</v>
+      </c>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8">
+        <v>10</v>
+      </c>
+      <c r="F30" s="8">
+        <v>200</v>
+      </c>
+      <c r="G30" s="8">
+        <v>100</v>
+      </c>
+      <c r="H30" s="8">
+        <v>300</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B771B09C-FCF4-4F13-B9DD-C4BDBF14363C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCBFFB9-D3F8-487C-897E-64B616DE5B84}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>train acc</t>
   </si>
@@ -200,6 +200,24 @@
   </si>
   <si>
     <t>27. 5 way 5 layers 100K per class</t>
+  </si>
+  <si>
+    <t>28. 19 rerun</t>
+  </si>
+  <si>
+    <t>best 5way</t>
+  </si>
+  <si>
+    <t>best 4way</t>
+  </si>
+  <si>
+    <t>best 2way</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -593,7 +611,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,13 +1418,15 @@
       <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>50</v>
+      <c r="B30" s="8">
+        <v>57.09</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="D30" s="8">
+        <v>56.68</v>
+      </c>
       <c r="E30" s="8">
         <v>10</v>
       </c>
@@ -1425,8 +1445,73 @@
       <c r="A31" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="8">
+        <f>MAX(B2,B5:B14,B17,B19:B26,B30:B31)</f>
+        <v>57.67</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="8">
+        <f>MAX(D2,D5:D14,D17,D19:D26,D30:D31)</f>
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="6">
+        <f>MAX(B15:B16,B18,B27:B28)</f>
+        <v>64.7</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="6">
+        <f>MAX(D15:D16,D18,D27:D28)</f>
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="10">
+        <f>MAX(B3:B4,B29)</f>
+        <v>80.8</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="10">
+        <f>MAX(D3:D4,D29)</f>
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCBFFB9-D3F8-487C-897E-64B616DE5B84}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5FAFB7-4A54-4F46-8B4A-7815F62FE964}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>train acc</t>
   </si>
@@ -202,9 +202,6 @@
     <t>27. 5 way 5 layers 100K per class</t>
   </si>
   <si>
-    <t>28. 19 rerun</t>
-  </si>
-  <si>
     <t>best 5way</t>
   </si>
   <si>
@@ -218,6 +215,24 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>6/8</t>
+  </si>
+  <si>
+    <t>29. 5way 5layers 100K hu125</t>
+  </si>
+  <si>
+    <t>28. 19 rerun - 2layers</t>
+  </si>
+  <si>
+    <t>31. 2way on 19</t>
+  </si>
+  <si>
+    <t>32. 4way on 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30. run best(19) on 100k </t>
   </si>
 </sst>
 </file>
@@ -608,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,74 +1460,196 @@
       <c r="A31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="B31" s="8">
+        <v>56.76</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="8">
+        <v>56.74</v>
+      </c>
+      <c r="E31" s="8">
+        <v>10</v>
+      </c>
+      <c r="F31" s="8">
+        <v>200</v>
+      </c>
+      <c r="G31" s="8">
+        <v>100</v>
+      </c>
+      <c r="H31" s="8">
+        <v>300</v>
+      </c>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="8">
+        <v>57.7</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="8">
+        <v>56.98</v>
+      </c>
+      <c r="E32" s="8">
+        <v>10</v>
+      </c>
+      <c r="F32" s="8">
+        <v>200</v>
+      </c>
+      <c r="G32" s="8">
+        <v>150</v>
+      </c>
+      <c r="H32" s="8">
+        <v>300</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8">
+        <v>10</v>
+      </c>
+      <c r="F33" s="8">
+        <v>200</v>
+      </c>
+      <c r="G33" s="8">
+        <v>125</v>
+      </c>
+      <c r="H33" s="8">
+        <v>300</v>
+      </c>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8">
+        <v>10</v>
+      </c>
+      <c r="F34" s="8">
+        <v>200</v>
+      </c>
+      <c r="G34" s="8">
+        <v>150</v>
+      </c>
+      <c r="H34" s="8">
+        <v>300</v>
+      </c>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="10">
+        <v>81.08</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="10">
+        <v>80.78</v>
+      </c>
+      <c r="E35" s="10">
+        <v>10</v>
+      </c>
+      <c r="F35" s="10">
+        <v>200</v>
+      </c>
+      <c r="G35" s="10">
+        <v>150</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6">
+        <v>10</v>
+      </c>
+      <c r="F36" s="6">
+        <v>200</v>
+      </c>
+      <c r="G36" s="6">
+        <v>150</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="B39" s="8">
+        <f>MAX(B2,B5:B14,B17,B19:B26,B30:B34)</f>
+        <v>57.7</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="8">
+        <f>MAX(D2,D5:D14,D17,D19:D26,D30:D34)</f>
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="8">
-        <f>MAX(B2,B5:B14,B17,B19:B26,B30:B31)</f>
-        <v>57.67</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8">
-        <f>MAX(D2,D5:D14,D17,D19:D26,D30:D31)</f>
-        <v>57.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="B40" s="6">
+        <f>MAX(B15:B16,B18,B27:B28,B36)</f>
+        <v>64.7</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="6">
+        <f>MAX(D15:D16,D18,D27:D28,D36)</f>
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="6">
-        <f>MAX(B15:B16,B18,B27:B28)</f>
-        <v>64.7</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6">
-        <f>MAX(D15:D16,D18,D27:D28)</f>
-        <v>64.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="10">
-        <f>MAX(B3:B4,B29)</f>
-        <v>80.8</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="10">
-        <f>MAX(D3:D4,D29)</f>
+      <c r="B41" s="10">
+        <f>MAX(B3:B4,B29,B35)</f>
+        <v>81.08</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="10">
+        <f>MAX(D3:D4,D29,D35)</f>
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>52</v>
       </c>
     </row>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5FAFB7-4A54-4F46-8B4A-7815F62FE964}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8878CF8-2DFA-41F3-B074-B27E39906110}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
   <si>
     <t>train acc</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t xml:space="preserve">30. run best(19) on 100k </t>
+  </si>
+  <si>
+    <t>34. run 5 layer no reg cost just new loss</t>
+  </si>
+  <si>
+    <t>33. run 5layer on 100k with reg cost and new loss</t>
+  </si>
+  <si>
+    <t>35. run 5 layer no reg cost just our loss + reg cost</t>
   </si>
 </sst>
 </file>
@@ -274,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -308,11 +317,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -343,6 +365,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,16 +1599,24 @@
       <c r="G35" s="10">
         <v>150</v>
       </c>
-      <c r="H35" s="10"/>
+      <c r="H35" s="10">
+        <v>300</v>
+      </c>
       <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6"/>
+      <c r="B36" s="6">
+        <v>64.7</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="6">
+        <v>64.430000000000007</v>
+      </c>
       <c r="E36" s="6">
         <v>10</v>
       </c>
@@ -1593,63 +1626,112 @@
       <c r="G36" s="6">
         <v>150</v>
       </c>
-      <c r="H36" s="6"/>
+      <c r="H36" s="6">
+        <v>300</v>
+      </c>
       <c r="I36" s="5"/>
     </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8">
+        <v>10</v>
+      </c>
+      <c r="F37" s="8">
+        <v>200</v>
+      </c>
+      <c r="G37" s="8">
+        <v>150</v>
+      </c>
+      <c r="H37" s="8">
+        <v>300</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B41" s="8">
         <f>MAX(B2,B5:B14,B17,B19:B26,B30:B34)</f>
         <v>57.7</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="8">
+      <c r="C41" s="9"/>
+      <c r="D41" s="8">
         <f>MAX(D2,D5:D14,D17,D19:D26,D30:D34)</f>
         <v>57.2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B42" s="6">
         <f>MAX(B15:B16,B18,B27:B28,B36)</f>
         <v>64.7</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="6">
+      <c r="C42" s="7"/>
+      <c r="D42" s="6">
         <f>MAX(D15:D16,D18,D27:D28,D36)</f>
-        <v>64.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+        <v>64.430000000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B43" s="10">
         <f>MAX(B3:B4,B29,B35)</f>
         <v>81.08</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="10">
+      <c r="C43" s="12"/>
+      <c r="D43" s="10">
         <f>MAX(D3:D4,D29,D35)</f>
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>52</v>
       </c>
     </row>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8878CF8-2DFA-41F3-B074-B27E39906110}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E129E815-746B-474F-BCC8-902B34D97877}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>train acc</t>
   </si>
@@ -242,6 +242,18 @@
   </si>
   <si>
     <t>35. run 5 layer no reg cost just our loss + reg cost</t>
+  </si>
+  <si>
+    <t>4/9</t>
+  </si>
+  <si>
+    <t>not working</t>
+  </si>
+  <si>
+    <t>8/10</t>
+  </si>
+  <si>
+    <t>34. run 5 layer no reg cost just new loss MSE</t>
   </si>
 </sst>
 </file>
@@ -648,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,9 +1551,15 @@
       <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="8"/>
+      <c r="B33" s="8">
+        <v>56.91</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="8">
+        <v>56.68</v>
+      </c>
       <c r="E33" s="8">
         <v>10</v>
       </c>
@@ -1560,9 +1578,15 @@
       <c r="A34" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="8"/>
+      <c r="B34" s="8">
+        <v>57.457000000000001</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="8">
+        <v>57.252000000000002</v>
+      </c>
       <c r="E34" s="8">
         <v>10</v>
       </c>
@@ -1656,82 +1680,133 @@
       <c r="A38" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="B38" s="8">
+        <v>56.744</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="8">
+        <v>56.5</v>
+      </c>
+      <c r="E38" s="8">
+        <v>10</v>
+      </c>
+      <c r="F38" s="8">
+        <v>200</v>
+      </c>
+      <c r="G38" s="8">
+        <v>150</v>
+      </c>
+      <c r="H38" s="8">
+        <v>300</v>
+      </c>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="4"/>
+      <c r="B39" s="8">
+        <v>20</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="8">
+        <v>20</v>
+      </c>
+      <c r="E39" s="8">
+        <v>10</v>
+      </c>
+      <c r="F39" s="8">
+        <v>200</v>
+      </c>
+      <c r="G39" s="8">
+        <v>150</v>
+      </c>
+      <c r="H39" s="8">
+        <v>300</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14" t="s">
+      <c r="A40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8">
+        <v>10</v>
+      </c>
+      <c r="F40" s="8">
+        <v>200</v>
+      </c>
+      <c r="G40" s="8">
+        <v>150</v>
+      </c>
+      <c r="H40" s="8">
+        <v>300</v>
+      </c>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14" t="s">
+      <c r="C41" s="14"/>
+      <c r="D41" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B42" s="8">
         <f>MAX(B2,B5:B14,B17,B19:B26,B30:B34)</f>
         <v>57.7</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="8">
+      <c r="C42" s="9"/>
+      <c r="D42" s="8">
         <f>MAX(D2,D5:D14,D17,D19:D26,D30:D34)</f>
-        <v>57.2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+        <v>57.252000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B43" s="6">
         <f>MAX(B15:B16,B18,B27:B28,B36)</f>
         <v>64.7</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="6">
+      <c r="C43" s="7"/>
+      <c r="D43" s="6">
         <f>MAX(D15:D16,D18,D27:D28,D36)</f>
         <v>64.430000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B44" s="10">
         <f>MAX(B3:B4,B29,B35)</f>
         <v>81.08</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="10">
+      <c r="C44" s="12"/>
+      <c r="D44" s="10">
         <f>MAX(D3:D4,D29,D35)</f>
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>52</v>
       </c>
     </row>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E129E815-746B-474F-BCC8-902B34D97877}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0F21C3-C2D2-4181-9508-FFB627563C47}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,9 +235,6 @@
     <t xml:space="preserve">30. run best(19) on 100k </t>
   </si>
   <si>
-    <t>34. run 5 layer no reg cost just new loss</t>
-  </si>
-  <si>
     <t>33. run 5layer on 100k with reg cost and new loss</t>
   </si>
   <si>
@@ -253,7 +250,10 @@
     <t>8/10</t>
   </si>
   <si>
-    <t>34. run 5 layer no reg cost just new loss MSE</t>
+    <t>34. run 5 layer no reg cost just new loss squared</t>
+  </si>
+  <si>
+    <t>34. run 5 layer no reg cost just new loss pow2</t>
   </si>
 </sst>
 </file>
@@ -663,7 +663,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,7 +1582,7 @@
         <v>57.457000000000001</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="8">
         <v>57.252000000000002</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
@@ -1678,13 +1678,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B38" s="8">
         <v>56.744</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="8">
         <v>56.5</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="8">
         <v>20</v>
@@ -1729,12 +1729,12 @@
         <v>300</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0F21C3-C2D2-4181-9508-FFB627563C47}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACEEE18-8142-4DED-AE12-299FBF7B43D7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>train acc</t>
   </si>
@@ -235,12 +235,6 @@
     <t xml:space="preserve">30. run best(19) on 100k </t>
   </si>
   <si>
-    <t>33. run 5layer on 100k with reg cost and new loss</t>
-  </si>
-  <si>
-    <t>35. run 5 layer no reg cost just our loss + reg cost</t>
-  </si>
-  <si>
     <t>4/9</t>
   </si>
   <si>
@@ -250,10 +244,16 @@
     <t>8/10</t>
   </si>
   <si>
-    <t>34. run 5 layer no reg cost just new loss squared</t>
-  </si>
-  <si>
-    <t>34. run 5 layer no reg cost just new loss pow2</t>
+    <t>35. run 5layer on 100k with reg cost and new loss</t>
+  </si>
+  <si>
+    <t>36. run 5 layer no reg cost just new loss squared</t>
+  </si>
+  <si>
+    <t>33. run 5 layer no reg cost just new loss pow2</t>
+  </si>
+  <si>
+    <t>34. run 5 layer no reg cost just our loss + reg cost</t>
   </si>
 </sst>
 </file>
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,7 +1582,7 @@
         <v>57.457000000000001</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D34" s="8">
         <v>57.252000000000002</v>
@@ -1657,11 +1657,17 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="B37" s="8">
+        <v>56.744</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="8">
+        <v>56.5</v>
+      </c>
       <c r="E37" s="8">
         <v>10</v>
       </c>
@@ -1681,13 +1687,13 @@
         <v>77</v>
       </c>
       <c r="B38" s="8">
-        <v>56.744</v>
+        <v>20</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D38" s="8">
-        <v>56.5</v>
+        <v>20</v>
       </c>
       <c r="E38" s="8">
         <v>10</v>
@@ -1701,11 +1707,13 @@
       <c r="H38" s="8">
         <v>300</v>
       </c>
-      <c r="I38" s="4"/>
+      <c r="I38" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B39" s="8">
         <v>20</v>
@@ -1729,16 +1737,22 @@
         <v>300</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="B40" s="8">
+        <v>57.04</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="8">
+        <v>56.48</v>
+      </c>
       <c r="E40" s="8">
         <v>10</v>
       </c>
@@ -1754,59 +1768,114 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14" t="s">
+      <c r="C46" s="14"/>
+      <c r="D46" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B47" s="8">
         <f>MAX(B2,B5:B14,B17,B19:B26,B30:B34)</f>
         <v>57.7</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="8">
+      <c r="C47" s="9"/>
+      <c r="D47" s="8">
         <f>MAX(D2,D5:D14,D17,D19:D26,D30:D34)</f>
         <v>57.252000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B48" s="6">
         <f>MAX(B15:B16,B18,B27:B28,B36)</f>
         <v>64.7</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="6">
+      <c r="C48" s="7"/>
+      <c r="D48" s="6">
         <f>MAX(D15:D16,D18,D27:D28,D36)</f>
         <v>64.430000000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B49" s="10">
         <f>MAX(B3:B4,B29,B35)</f>
         <v>81.08</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="10">
+      <c r="C49" s="12"/>
+      <c r="D49" s="10">
         <f>MAX(D3:D4,D29,D35)</f>
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>52</v>
       </c>
     </row>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACEEE18-8142-4DED-AE12-299FBF7B43D7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A357482E-D206-43CC-A939-59F2D034D72E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
   <si>
     <t>train acc</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>34. run 5 layer no reg cost just our loss + reg cost</t>
+  </si>
+  <si>
+    <t>37. 5 layer data limits 5-100</t>
+  </si>
+  <si>
+    <t>38. 7 layers</t>
   </si>
 </sst>
 </file>
@@ -663,7 +669,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,25 +1774,45 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="A41" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="E41" s="8">
+        <v>10</v>
+      </c>
+      <c r="F41" s="8">
+        <v>200</v>
+      </c>
+      <c r="G41" s="8">
+        <v>150</v>
+      </c>
+      <c r="H41" s="8">
+        <v>300</v>
+      </c>
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+      <c r="A42" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
+      <c r="E42" s="8">
+        <v>10</v>
+      </c>
+      <c r="F42" s="8">
+        <v>200</v>
+      </c>
+      <c r="G42" s="8">
+        <v>75</v>
+      </c>
+      <c r="H42" s="8">
+        <v>300</v>
+      </c>
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A357482E-D206-43CC-A939-59F2D034D72E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E676D3-A1C6-4F4C-BE90-F5D0EC220A2C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
   <si>
     <t>train acc</t>
   </si>
@@ -669,7 +669,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,9 +1777,15 @@
       <c r="A41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="8"/>
+      <c r="B41" s="8">
+        <v>47.618000000000002</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="8">
+        <v>47.61</v>
+      </c>
       <c r="E41" s="8">
         <v>10</v>
       </c>
@@ -1798,9 +1804,15 @@
       <c r="A42" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="8"/>
+      <c r="B42" s="8">
+        <v>56.62</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="8">
+        <v>56.57</v>
+      </c>
       <c r="E42" s="8">
         <v>10</v>
       </c>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E676D3-A1C6-4F4C-BE90-F5D0EC220A2C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E409E4E-1141-4B20-9185-C8FF2F7384BD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
   <si>
     <t>train acc</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>38. 7 layers</t>
+  </si>
+  <si>
+    <t>39. 2layers 100hu</t>
   </si>
 </sst>
 </file>
@@ -668,24 +671,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -712,7 +715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -737,7 +740,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -764,7 +767,7 @@
       </c>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
@@ -791,7 +794,7 @@
       </c>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -820,7 +823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -847,7 +850,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -874,7 +877,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -901,7 +904,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -928,7 +931,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -955,7 +958,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -982,7 +985,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -1009,7 +1012,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1036,7 +1039,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -1063,7 +1066,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
@@ -1090,7 +1093,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
@@ -1117,7 +1120,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -1144,7 +1147,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
@@ -1171,7 +1174,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
@@ -1227,7 +1230,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -1254,7 +1257,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>44</v>
       </c>
@@ -1281,7 +1284,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -1310,7 +1313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
@@ -1337,7 +1340,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -1364,7 +1367,7 @@
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>51</v>
       </c>
@@ -1391,7 +1394,7 @@
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -1418,7 +1421,7 @@
       </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
@@ -1445,7 +1448,7 @@
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>57</v>
       </c>
@@ -1472,7 +1475,7 @@
       </c>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
@@ -1499,7 +1502,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>59</v>
       </c>
@@ -1526,7 +1529,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>67</v>
       </c>
@@ -1553,7 +1556,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
@@ -1580,7 +1583,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>70</v>
       </c>
@@ -1607,7 +1610,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>68</v>
       </c>
@@ -1634,7 +1637,7 @@
       </c>
       <c r="I35" s="11"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>69</v>
       </c>
@@ -1661,7 +1664,7 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>76</v>
       </c>
@@ -1688,7 +1691,7 @@
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>77</v>
       </c>
@@ -1717,7 +1720,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
@@ -1746,7 +1749,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
@@ -1773,7 +1776,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>78</v>
       </c>
@@ -1800,7 +1803,7 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>79</v>
       </c>
@@ -1827,8 +1830,10 @@
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
       <c r="D43" s="8"/>
@@ -1838,7 +1843,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
@@ -1849,7 +1854,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
@@ -1860,7 +1865,7 @@
       <c r="H45" s="8"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="14" t="s">
         <v>63</v>
@@ -1870,7 +1875,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>60</v>
       </c>
@@ -1884,7 +1889,7 @@
         <v>57.252000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>61</v>
       </c>
@@ -1898,7 +1903,7 @@
         <v>64.430000000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>62</v>
       </c>
@@ -1912,7 +1917,7 @@
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E409E4E-1141-4B20-9185-C8FF2F7384BD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245B6ABC-84A6-4F82-88CF-23B33DF84268}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>train acc</t>
   </si>
@@ -223,9 +223,6 @@
     <t>29. 5way 5layers 100K hu125</t>
   </si>
   <si>
-    <t>28. 19 rerun - 2layers</t>
-  </si>
-  <si>
     <t>31. 2way on 19</t>
   </si>
   <si>
@@ -263,6 +260,9 @@
   </si>
   <si>
     <t>39. 2layers 100hu</t>
+  </si>
+  <si>
+    <t>28. 17 rerun - 2layers</t>
   </si>
 </sst>
 </file>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B32" s="8">
         <v>57.7</v>
@@ -1585,13 +1585,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="8">
         <v>57.457000000000001</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="8">
         <v>57.252000000000002</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="10">
         <v>81.08</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="6">
         <v>64.7</v>
@@ -1666,13 +1666,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="8">
         <v>56.744</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="8">
         <v>56.5</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="8">
         <v>20</v>
@@ -1717,12 +1717,12 @@
         <v>300</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="8">
         <v>20</v>
@@ -1746,12 +1746,12 @@
         <v>300</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="8">
         <v>57.04</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" s="8">
         <v>47.618000000000002</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" s="8">
         <v>56.62</v>
@@ -1832,15 +1832,29 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="B43" s="8">
+        <v>57.09</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="8">
+        <v>57.09</v>
+      </c>
+      <c r="E43" s="8">
+        <v>10</v>
+      </c>
+      <c r="F43" s="8">
+        <v>200</v>
+      </c>
+      <c r="G43" s="8">
+        <v>100</v>
+      </c>
+      <c r="H43" s="8">
+        <v>300</v>
+      </c>
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245B6ABC-84A6-4F82-88CF-23B33DF84268}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDF5408-FDFA-4E2A-B260-AF3033E10EB5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
   <si>
     <t>train acc</t>
   </si>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>28. 17 rerun - 2layers</t>
+  </si>
+  <si>
+    <t>40. 2layer dropout per cell(our jupyter)</t>
+  </si>
+  <si>
+    <t>41. 2layer attention size 10 each cell(BEN)</t>
+  </si>
+  <si>
+    <t>43. 2layer(#39) with tf.train.exponential_decay(ready on our jupyter)</t>
+  </si>
+  <si>
+    <t>42. 2layer attention(10) + dropout each cell(ready on BEN jupyter)</t>
   </si>
 </sst>
 </file>
@@ -355,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -387,6 +399,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -669,26 +688,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -715,7 +734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -740,7 +759,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -767,7 +786,7 @@
       </c>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
@@ -794,7 +813,7 @@
       </c>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -823,7 +842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -850,7 +869,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -877,7 +896,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -904,7 +923,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -931,7 +950,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -958,7 +977,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -985,7 +1004,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -1012,7 +1031,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1039,7 +1058,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -1066,7 +1085,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
@@ -1093,7 +1112,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
@@ -1120,7 +1139,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -1147,7 +1166,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
@@ -1174,7 +1193,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -1203,7 +1222,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
@@ -1230,7 +1249,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -1257,7 +1276,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>44</v>
       </c>
@@ -1284,7 +1303,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -1313,7 +1332,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
@@ -1340,7 +1359,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -1367,7 +1386,7 @@
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>51</v>
       </c>
@@ -1394,7 +1413,7 @@
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -1421,7 +1440,7 @@
       </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
@@ -1448,7 +1467,7 @@
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>57</v>
       </c>
@@ -1475,7 +1494,7 @@
       </c>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
@@ -1502,7 +1521,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>59</v>
       </c>
@@ -1529,7 +1548,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>80</v>
       </c>
@@ -1556,7 +1575,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
@@ -1583,7 +1602,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
@@ -1610,7 +1629,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>67</v>
       </c>
@@ -1637,7 +1656,7 @@
       </c>
       <c r="I35" s="11"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>68</v>
       </c>
@@ -1664,7 +1683,7 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>75</v>
       </c>
@@ -1691,7 +1710,7 @@
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>76</v>
       </c>
@@ -1720,7 +1739,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>73</v>
       </c>
@@ -1749,7 +1768,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>74</v>
       </c>
@@ -1776,7 +1795,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>77</v>
       </c>
@@ -1803,7 +1822,7 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>78</v>
       </c>
@@ -1830,7 +1849,7 @@
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>79</v>
       </c>
@@ -1857,82 +1876,201 @@
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="E44" s="8">
+        <v>10</v>
+      </c>
+      <c r="F44" s="8">
+        <v>200</v>
+      </c>
+      <c r="G44" s="8">
+        <v>100</v>
+      </c>
+      <c r="H44" s="8">
+        <v>300</v>
+      </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+      <c r="E45" s="8">
+        <v>10</v>
+      </c>
+      <c r="F45" s="8">
+        <v>200</v>
+      </c>
+      <c r="G45" s="8">
+        <v>100</v>
+      </c>
+      <c r="H45" s="8">
+        <v>300</v>
+      </c>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="8">
+        <v>10</v>
+      </c>
+      <c r="F46" s="8">
+        <v>200</v>
+      </c>
+      <c r="G46" s="8">
+        <v>100</v>
+      </c>
+      <c r="H46" s="8">
+        <v>300</v>
+      </c>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="8">
+        <v>10</v>
+      </c>
+      <c r="F47" s="8">
+        <v>200</v>
+      </c>
+      <c r="G47" s="8">
+        <v>100</v>
+      </c>
+      <c r="H47" s="8">
+        <v>300</v>
+      </c>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="8">
+        <v>10</v>
+      </c>
+      <c r="F48" s="8">
+        <v>200</v>
+      </c>
+      <c r="G48" s="8">
+        <v>100</v>
+      </c>
+      <c r="H48" s="8">
+        <v>300</v>
+      </c>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="8">
+        <v>10</v>
+      </c>
+      <c r="F49" s="8">
+        <v>200</v>
+      </c>
+      <c r="G49" s="8">
+        <v>100</v>
+      </c>
+      <c r="H49" s="8">
+        <v>300</v>
+      </c>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="8">
+        <v>10</v>
+      </c>
+      <c r="F50" s="8">
+        <v>200</v>
+      </c>
+      <c r="G50" s="8">
+        <v>100</v>
+      </c>
+      <c r="H50" s="8">
+        <v>300</v>
+      </c>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14" t="s">
+      <c r="C51" s="14"/>
+      <c r="D51" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B52" s="8">
         <f>MAX(B2,B5:B14,B17,B19:B26,B30:B34)</f>
         <v>57.7</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="8">
+      <c r="C52" s="9"/>
+      <c r="D52" s="8">
         <f>MAX(D2,D5:D14,D17,D19:D26,D30:D34)</f>
         <v>57.252000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B53" s="6">
         <f>MAX(B15:B16,B18,B27:B28,B36)</f>
         <v>64.7</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="6">
+      <c r="C53" s="7"/>
+      <c r="D53" s="6">
         <f>MAX(D15:D16,D18,D27:D28,D36)</f>
         <v>64.430000000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B54" s="10">
         <f>MAX(B3:B4,B29,B35)</f>
         <v>81.08</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="10">
+      <c r="C54" s="12"/>
+      <c r="D54" s="10">
         <f>MAX(D3:D4,D29,D35)</f>
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>52</v>
       </c>
     </row>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDF5408-FDFA-4E2A-B260-AF3033E10EB5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55926B45-9E46-4707-8BA3-710B48401A7A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>train acc</t>
   </si>
@@ -271,10 +271,10 @@
     <t>41. 2layer attention size 10 each cell(BEN)</t>
   </si>
   <si>
-    <t>43. 2layer(#39) with tf.train.exponential_decay(ready on our jupyter)</t>
-  </si>
-  <si>
-    <t>42. 2layer attention(10) + dropout each cell(ready on BEN jupyter)</t>
+    <t>42. 2layer attention(10) + dropout each cell(ready on our jupyter)</t>
+  </si>
+  <si>
+    <t>43. 2layer(#39) with tf.train.exponential_decay(ready on BEN jupyter)</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,7 +1860,7 @@
         <v>45</v>
       </c>
       <c r="D43" s="8">
-        <v>57.09</v>
+        <v>56.77</v>
       </c>
       <c r="E43" s="8">
         <v>10</v>
@@ -1880,9 +1880,15 @@
       <c r="A44" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="8"/>
+      <c r="B44" s="8">
+        <v>57.32</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="8">
+        <v>56.98</v>
+      </c>
       <c r="E44" s="8">
         <v>10</v>
       </c>
@@ -1920,7 +1926,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="17"/>
@@ -1941,7 +1947,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="17"/>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55926B45-9E46-4707-8BA3-710B48401A7A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B785BA4-7A25-4B54-B961-C5B8B895AFA7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>train acc</t>
   </si>
@@ -271,10 +271,13 @@
     <t>41. 2layer attention size 10 each cell(BEN)</t>
   </si>
   <si>
-    <t>42. 2layer attention(10) + dropout each cell(ready on our jupyter)</t>
-  </si>
-  <si>
-    <t>43. 2layer(#39) with tf.train.exponential_decay(ready on BEN jupyter)</t>
+    <t>3/10</t>
+  </si>
+  <si>
+    <t>42. 2layer attention(10) + dropout each cell</t>
+  </si>
+  <si>
+    <t>43. 2layer(#39) with tf.train.exponential_decay(  BEN )</t>
   </si>
 </sst>
 </file>
@@ -691,7 +694,7 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,9 +1910,15 @@
       <c r="A45" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="8"/>
+      <c r="B45" s="8">
+        <v>54.65</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="8">
+        <v>54.64</v>
+      </c>
       <c r="E45" s="8">
         <v>10</v>
       </c>
@@ -1926,11 +1935,17 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="16"/>
+        <v>84</v>
+      </c>
+      <c r="B46" s="16">
+        <v>55.54</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="16">
+        <v>55.5</v>
+      </c>
       <c r="E46" s="8">
         <v>10</v>
       </c>
@@ -1947,7 +1962,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="17"/>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B785BA4-7A25-4B54-B961-C5B8B895AFA7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1653E520-7B0E-4A7B-8AF4-F6A71F48B045}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
   <si>
     <t>train acc</t>
   </si>
@@ -278,6 +278,15 @@
   </si>
   <si>
     <t>43. 2layer(#39) with tf.train.exponential_decay(  BEN )</t>
+  </si>
+  <si>
+    <t>44. 2layer dropout and attention size 25 on the multi cells (OUR)</t>
+  </si>
+  <si>
+    <t>46. 2layer dropout and attention size 40 on the multi cells (change on OUR)</t>
+  </si>
+  <si>
+    <t>45. 2layer dropout per each hu100-&gt;300 (code ready on pycharm run on BEN)</t>
   </si>
 </sst>
 </file>
@@ -693,13 +702,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -1982,7 +1991,9 @@
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
+      <c r="A48" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="B48" s="16"/>
       <c r="C48" s="17"/>
       <c r="D48" s="16"/>
@@ -2001,7 +2012,9 @@
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
+      <c r="A49" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="B49" s="16"/>
       <c r="C49" s="17"/>
       <c r="D49" s="16"/>
@@ -2020,7 +2033,9 @@
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
+      <c r="A50" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="B50" s="16"/>
       <c r="C50" s="17"/>
       <c r="D50" s="16"/>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1653E520-7B0E-4A7B-8AF4-F6A71F48B045}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C8540D-60DA-48F7-A7D5-C68C17E15D3A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
   <si>
     <t>train acc</t>
   </si>
@@ -277,16 +277,16 @@
     <t>42. 2layer attention(10) + dropout each cell</t>
   </si>
   <si>
-    <t>43. 2layer(#39) with tf.train.exponential_decay(  BEN )</t>
-  </si>
-  <si>
-    <t>44. 2layer dropout and attention size 25 on the multi cells (OUR)</t>
-  </si>
-  <si>
-    <t>46. 2layer dropout and attention size 40 on the multi cells (change on OUR)</t>
-  </si>
-  <si>
-    <t>45. 2layer dropout per each hu100-&gt;300 (code ready on pycharm run on BEN)</t>
+    <t>43. 2layer(#39) with tf.train.exponential_decay</t>
+  </si>
+  <si>
+    <t>44. 2layer dropout and attention size 25 on the multi cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45. 2layer dropout per each hu100-&gt;300  shuffled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">46. 2layer dropout per each hu100-&gt;300  shuffled </t>
   </si>
 </sst>
 </file>
@@ -702,13 +702,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -1973,9 +1973,15 @@
       <c r="A47" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="16"/>
+      <c r="B47" s="16">
+        <v>57.3</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="16">
+        <v>57.12</v>
+      </c>
       <c r="E47" s="8">
         <v>10</v>
       </c>
@@ -1994,9 +2000,15 @@
       <c r="A48" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="16"/>
+      <c r="B48" s="16">
+        <v>56.34</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="E48" s="8">
         <v>10</v>
       </c>
@@ -2013,11 +2025,17 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="B49" s="16">
+        <v>57.62</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="16">
+        <v>57.11</v>
+      </c>
       <c r="E49" s="8">
         <v>10</v>
       </c>
@@ -2025,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="G49" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H49" s="8">
         <v>300</v>
@@ -2034,11 +2052,17 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="B50" s="16">
+        <v>57.02</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="16">
+        <v>57.02</v>
+      </c>
       <c r="E50" s="8">
         <v>10</v>
       </c>
@@ -2046,7 +2070,7 @@
         <v>200</v>
       </c>
       <c r="G50" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H50" s="8">
         <v>300</v>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C8540D-60DA-48F7-A7D5-C68C17E15D3A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E724B1F-B879-4177-A56B-1F11C6FC06ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>train acc</t>
   </si>
@@ -178,9 +178,6 @@
     <t>22. just like #19 - extra layer (4 total) and 20 epochs</t>
   </si>
   <si>
-    <t>try shuffle best model</t>
-  </si>
-  <si>
     <t>9/15</t>
   </si>
   <si>
@@ -202,21 +199,6 @@
     <t>27. 5 way 5 layers 100K per class</t>
   </si>
   <si>
-    <t>best 5way</t>
-  </si>
-  <si>
-    <t>best 4way</t>
-  </si>
-  <si>
-    <t>best 2way</t>
-  </si>
-  <si>
-    <t>train</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>6/8</t>
   </si>
   <si>
@@ -287,6 +269,12 @@
   </si>
   <si>
     <t xml:space="preserve">46. 2layer dropout per each hu100-&gt;300  shuffled </t>
+  </si>
+  <si>
+    <t>47. norm l2</t>
+  </si>
+  <si>
+    <t>6/25</t>
   </si>
 </sst>
 </file>
@@ -379,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -410,9 +398,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -700,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1364,7 @@
         <v>54.54</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="8">
         <v>53.8</v>
@@ -1427,13 +1412,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="6">
         <v>61.08</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="6">
         <v>60.76</v>
@@ -1454,7 +1439,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="6">
         <v>64.7</v>
@@ -1481,7 +1466,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="10">
         <v>80.8</v>
@@ -1508,7 +1493,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="8">
         <v>57.09</v>
@@ -1535,13 +1520,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="8">
         <v>56.76</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D31" s="8">
         <v>56.74</v>
@@ -1562,7 +1547,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B32" s="8">
         <v>57.7</v>
@@ -1589,7 +1574,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B33" s="8">
         <v>56.91</v>
@@ -1616,13 +1601,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B34" s="8">
         <v>57.457000000000001</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D34" s="8">
         <v>57.252000000000002</v>
@@ -1643,7 +1628,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B35" s="10">
         <v>81.08</v>
@@ -1670,7 +1655,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B36" s="6">
         <v>64.7</v>
@@ -1697,13 +1682,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B37" s="8">
         <v>56.744</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D37" s="8">
         <v>56.5</v>
@@ -1724,7 +1709,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B38" s="8">
         <v>20</v>
@@ -1748,12 +1733,12 @@
         <v>300</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B39" s="8">
         <v>20</v>
@@ -1777,12 +1762,12 @@
         <v>300</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B40" s="8">
         <v>57.04</v>
@@ -1809,7 +1794,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B41" s="8">
         <v>47.618000000000002</v>
@@ -1836,7 +1821,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B42" s="8">
         <v>56.62</v>
@@ -1863,7 +1848,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B43" s="8">
         <v>57.09</v>
@@ -1890,7 +1875,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B44" s="8">
         <v>57.32</v>
@@ -1917,13 +1902,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B45" s="8">
         <v>54.65</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D45" s="8">
         <v>54.64</v>
@@ -1943,16 +1928,16 @@
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="16">
+      <c r="A46" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="15">
         <v>55.54</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="15">
         <v>55.5</v>
       </c>
       <c r="E46" s="8">
@@ -1970,16 +1955,16 @@
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="16">
+      <c r="A47" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="15">
         <v>57.3</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="15">
         <v>57.12</v>
       </c>
       <c r="E47" s="8">
@@ -1997,16 +1982,16 @@
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="16">
+      <c r="A48" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="15">
         <v>56.34</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E48" s="8">
@@ -2024,115 +2009,140 @@
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="16">
+      <c r="A49" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="15">
         <v>57.62</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="15">
+        <v>57.11</v>
+      </c>
+      <c r="E49" s="8">
+        <v>10</v>
+      </c>
+      <c r="F49" s="8">
+        <v>200</v>
+      </c>
+      <c r="G49" s="8">
+        <v>300</v>
+      </c>
+      <c r="H49" s="8">
+        <v>300</v>
+      </c>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="15">
+        <v>57.02</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="15">
+        <v>57.02</v>
+      </c>
+      <c r="E50" s="8">
+        <v>10</v>
+      </c>
+      <c r="F50" s="8">
+        <v>200</v>
+      </c>
+      <c r="G50" s="8">
+        <v>300</v>
+      </c>
+      <c r="H50" s="8">
+        <v>300</v>
+      </c>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="16">
-        <v>57.11</v>
-      </c>
-      <c r="E49" s="8">
-        <v>10</v>
-      </c>
-      <c r="F49" s="8">
-        <v>200</v>
-      </c>
-      <c r="G49" s="8">
-        <v>300</v>
-      </c>
-      <c r="H49" s="8">
-        <v>300</v>
-      </c>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="16">
-        <v>57.02</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" s="16">
-        <v>57.02</v>
-      </c>
-      <c r="E50" s="8">
-        <v>10</v>
-      </c>
-      <c r="F50" s="8">
-        <v>200</v>
-      </c>
-      <c r="G50" s="8">
-        <v>300</v>
-      </c>
-      <c r="H50" s="8">
-        <v>300</v>
-      </c>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14" t="s">
-        <v>64</v>
-      </c>
+      <c r="B51" s="15">
+        <v>55.9</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="15">
+        <v>56.17</v>
+      </c>
+      <c r="E51" s="8">
+        <v>25</v>
+      </c>
+      <c r="F51" s="8">
+        <v>200</v>
+      </c>
+      <c r="G51" s="8">
+        <v>100</v>
+      </c>
+      <c r="H51" s="8">
+        <v>300</v>
+      </c>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="8">
-        <f>MAX(B2,B5:B14,B17,B19:B26,B30:B34)</f>
-        <v>57.7</v>
-      </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="8">
-        <f>MAX(D2,D5:D14,D17,D19:D26,D30:D34)</f>
-        <v>57.252000000000002</v>
-      </c>
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="6">
-        <f>MAX(B15:B16,B18,B27:B28,B36)</f>
-        <v>64.7</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="6">
-        <f>MAX(D15:D16,D18,D27:D28,D36)</f>
-        <v>64.430000000000007</v>
-      </c>
+      <c r="A53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="10">
-        <f>MAX(B3:B4,B29,B35)</f>
-        <v>81.08</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="10">
-        <f>MAX(D3:D4,D29,D35)</f>
-        <v>80.900000000000006</v>
-      </c>
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>52</v>
-      </c>
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E724B1F-B879-4177-A56B-1F11C6FC06ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C779780-30F3-4CAA-B2B8-2A80DEB896D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
   <si>
     <t>train acc</t>
   </si>
@@ -275,6 +275,21 @@
   </si>
   <si>
     <t>6/25</t>
+  </si>
+  <si>
+    <t>48. 2layer dropout 0.7</t>
+  </si>
+  <si>
+    <t>49. 2layer atn 45</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>OUR</t>
+  </si>
+  <si>
+    <t>50. 2layer dropout 0.5</t>
   </si>
 </sst>
 </file>
@@ -688,7 +703,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,29 +2105,61 @@
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+      <c r="A52" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="B52" s="15"/>
       <c r="C52" s="16"/>
       <c r="D52" s="15"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="4"/>
+      <c r="E52" s="8">
+        <v>10</v>
+      </c>
+      <c r="F52" s="8">
+        <v>200</v>
+      </c>
+      <c r="G52" s="8">
+        <v>300</v>
+      </c>
+      <c r="H52" s="8">
+        <v>300</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="4"/>
+      <c r="A53" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="15">
+        <v>54.8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="15">
+        <v>55.25</v>
+      </c>
+      <c r="E53" s="8">
+        <v>10</v>
+      </c>
+      <c r="F53" s="8">
+        <v>200</v>
+      </c>
+      <c r="G53" s="8">
+        <v>50</v>
+      </c>
+      <c r="H53" s="8">
+        <v>300</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
+      <c r="A54" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="B54" s="15"/>
       <c r="C54" s="16"/>
       <c r="D54" s="15"/>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C779780-30F3-4CAA-B2B8-2A80DEB896D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0E1C88-4D92-4402-BB06-973D19908575}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>train acc</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>50. 2layer dropout 0.5</t>
+  </si>
+  <si>
+    <t>6/15</t>
+  </si>
+  <si>
+    <t>51. 2layer dropout 0.75 and bigger batches</t>
   </si>
 </sst>
 </file>
@@ -703,7 +709,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,9 +2114,15 @@
       <c r="A52" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="15"/>
+      <c r="B52" s="15">
+        <v>57</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="15">
+        <v>56.85</v>
+      </c>
       <c r="E52" s="8">
         <v>10</v>
       </c>
@@ -2160,24 +2172,54 @@
       <c r="A54" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
+      <c r="B54" s="15">
+        <v>56.74</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="15">
+        <v>56.61</v>
+      </c>
+      <c r="E54" s="8">
+        <v>15</v>
+      </c>
+      <c r="F54" s="8">
+        <v>200</v>
+      </c>
+      <c r="G54" s="8">
+        <v>300</v>
+      </c>
+      <c r="H54" s="8">
+        <v>300</v>
+      </c>
       <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="A55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="15">
+        <v>56.48</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="15">
+        <v>56.53</v>
+      </c>
+      <c r="E55" s="8">
+        <v>10</v>
+      </c>
+      <c r="F55" s="8">
+        <v>300</v>
+      </c>
+      <c r="G55" s="8">
+        <v>200</v>
+      </c>
+      <c r="H55" s="8">
+        <v>300</v>
+      </c>
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2193,5 +2235,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0E1C88-4D92-4402-BB06-973D19908575}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BBB103-27BD-4AD6-BF91-E0C43411DFB9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
   <si>
     <t>train acc</t>
   </si>
@@ -296,6 +296,24 @@
   </si>
   <si>
     <t>51. 2layer dropout 0.75 and bigger batches</t>
+  </si>
+  <si>
+    <t>52. drop 85%</t>
+  </si>
+  <si>
+    <t>56.17</t>
+  </si>
+  <si>
+    <t>53. drop 15%</t>
+  </si>
+  <si>
+    <t>54. drop 85% 50 epochs</t>
+  </si>
+  <si>
+    <t>55. drop 85% batch 600</t>
+  </si>
+  <si>
+    <t>56.38</t>
   </si>
 </sst>
 </file>
@@ -706,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2223,15 +2241,111 @@
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
+      <c r="A56" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="15">
+        <v>56.1</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="8">
+        <v>10</v>
+      </c>
+      <c r="F56" s="8">
+        <v>400</v>
+      </c>
+      <c r="G56" s="8">
+        <v>100</v>
+      </c>
+      <c r="H56" s="8">
+        <v>300</v>
+      </c>
       <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="15">
+        <v>56.45</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="8">
+        <v>15</v>
+      </c>
+      <c r="F57" s="8">
+        <v>400</v>
+      </c>
+      <c r="G57" s="8">
+        <v>100</v>
+      </c>
+      <c r="H57" s="8">
+        <v>300</v>
+      </c>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="8">
+        <v>50</v>
+      </c>
+      <c r="F58" s="8">
+        <v>400</v>
+      </c>
+      <c r="G58" s="8">
+        <v>100</v>
+      </c>
+      <c r="H58" s="8">
+        <v>300</v>
+      </c>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="8">
+        <v>30</v>
+      </c>
+      <c r="F59" s="8">
+        <v>600</v>
+      </c>
+      <c r="G59" s="8">
+        <v>50</v>
+      </c>
+      <c r="H59" s="8">
+        <v>300</v>
+      </c>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BBB103-27BD-4AD6-BF91-E0C43411DFB9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12954D34-60FB-4AE3-B449-333CAF7BCD77}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
   <si>
     <t>train acc</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>56.38</t>
+  </si>
+  <si>
+    <t>20/30</t>
+  </si>
+  <si>
+    <t>56.13</t>
   </si>
 </sst>
 </file>
@@ -727,7 +733,7 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,9 +2325,15 @@
       <c r="A59" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
+      <c r="B59" s="15">
+        <v>55.86</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="E59" s="8">
         <v>30</v>
       </c>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12954D34-60FB-4AE3-B449-333CAF7BCD77}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B803FD-B75A-4DEE-9ECA-D67731AB67CF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="104">
   <si>
     <t>train acc</t>
   </si>
@@ -320,6 +320,18 @@
   </si>
   <si>
     <t>56.13</t>
+  </si>
+  <si>
+    <t>11/50</t>
+  </si>
+  <si>
+    <t>56. old model with out best params and pre made embedding</t>
+  </si>
+  <si>
+    <t>50.28</t>
+  </si>
+  <si>
+    <t>23/30</t>
   </si>
 </sst>
 </file>
@@ -732,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,9 +2316,15 @@
       <c r="A58" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
+      <c r="B58" s="15">
+        <v>56.32</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="E58" s="8">
         <v>50</v>
       </c>
@@ -2349,10 +2367,18 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
+      <c r="A60" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="15">
+        <v>50.63</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>102</v>
+      </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B803FD-B75A-4DEE-9ECA-D67731AB67CF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0238D0EE-3759-4110-A245-614BC09A62AE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
   <si>
     <t>train acc</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>23/30</t>
+  </si>
+  <si>
+    <t>57. last run</t>
   </si>
 </sst>
 </file>
@@ -742,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,6 +2388,27 @@
       <c r="H60" s="8"/>
       <c r="I60" s="4"/>
     </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="8">
+        <v>10</v>
+      </c>
+      <c r="F61" s="8">
+        <v>200</v>
+      </c>
+      <c r="G61" s="8">
+        <v>300</v>
+      </c>
+      <c r="H61" s="8">
+        <v>300</v>
+      </c>
+      <c r="I61" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bi/docs/resultsTable.xlsx
+++ b/bi/docs/resultsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0238D0EE-3759-4110-A245-614BC09A62AE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B876D0A-DB4F-4F93-B7F0-41653A4D07B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="107">
   <si>
     <t>train acc</t>
   </si>
@@ -334,7 +334,13 @@
     <t>23/30</t>
   </si>
   <si>
-    <t>57. last run</t>
+    <t>57. last run best acc</t>
+  </si>
+  <si>
+    <t>57. last run less overfit</t>
+  </si>
+  <si>
+    <t>56.88</t>
   </si>
 </sst>
 </file>
@@ -745,7 +751,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
@@ -2392,9 +2398,15 @@
       <c r="A61" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="15"/>
+      <c r="B61" s="15">
+        <v>56.68</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="E61" s="8">
         <v>10</v>
       </c>
@@ -2408,6 +2420,27 @@
         <v>300</v>
       </c>
       <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="8">
+        <v>10</v>
+      </c>
+      <c r="F62" s="8">
+        <v>400</v>
+      </c>
+      <c r="G62" s="8">
+        <v>100</v>
+      </c>
+      <c r="H62" s="8">
+        <v>300</v>
+      </c>
+      <c r="I62" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
